--- a/Client/EXCEL/SkillData.xlsx
+++ b/Client/EXCEL/SkillData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="132">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,6 +511,20 @@
   <si>
     <t>多重冰結手裏劍</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪手裏劍散射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos_A_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnowStorm</t>
+  </si>
+  <si>
+    <t>IceAura</t>
   </si>
 </sst>
 </file>
@@ -1235,13 +1249,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="T21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1905,26 +1919,26 @@
     </row>
     <row r="9" spans="1:32" s="10" customFormat="1">
       <c r="A9" s="10">
-        <v>1001</v>
+        <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="10">
         <v>30</v>
       </c>
       <c r="G9" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" s="10">
         <v>0</v>
@@ -1933,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="10">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L9" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M9" s="10">
         <v>0</v>
@@ -1963,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="10">
-        <v>0</v>
+        <v>30001</v>
       </c>
       <c r="V9" s="9" t="s">
         <v>106</v>
@@ -1972,42 +1986,43 @@
         <v>1</v>
       </c>
       <c r="X9" s="10">
+        <v>80</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="Y9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="10" customFormat="1">
       <c r="A10" s="10">
-        <v>1002</v>
+        <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="10">
         <v>30</v>
       </c>
       <c r="G10" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="10">
         <v>0</v>
@@ -2016,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="10">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="L10" s="10">
         <v>15</v>
@@ -2049,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="W10" s="10">
         <v>1</v>
@@ -2058,27 +2073,28 @@
         <v>100</v>
       </c>
       <c r="Y10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="10" customFormat="1">
       <c r="A11" s="10">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>90</v>
@@ -2090,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I11" s="10">
         <v>0</v>
@@ -2099,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="10">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L11" s="10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M11" s="10">
         <v>0</v>
@@ -2138,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="X11" s="10">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Y11" s="10">
         <v>0</v>
@@ -2154,10 +2170,10 @@
     </row>
     <row r="12" spans="1:32" s="10" customFormat="1">
       <c r="A12" s="10">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
@@ -2170,10 +2186,10 @@
         <v>30</v>
       </c>
       <c r="G12" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I12" s="10">
         <v>0</v>
@@ -2185,7 +2201,7 @@
         <v>600</v>
       </c>
       <c r="L12" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M12" s="10">
         <v>0</v>
@@ -2215,13 +2231,13 @@
         <v>0</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="W12" s="10">
         <v>1</v>
       </c>
       <c r="X12" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="10">
         <v>0</v>
@@ -2237,17 +2253,17 @@
     </row>
     <row r="13" spans="1:32" s="10" customFormat="1">
       <c r="A13" s="10">
-        <v>2001</v>
+        <v>1003</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13" s="10">
         <v>30</v>
@@ -2256,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I13" s="10">
         <v>0</v>
@@ -2265,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="10">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L13" s="10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M13" s="10">
         <v>0</v>
@@ -2304,13 +2320,13 @@
         <v>1</v>
       </c>
       <c r="X13" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Y13" s="10">
         <v>0</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -2320,26 +2336,26 @@
     </row>
     <row r="14" spans="1:32" s="10" customFormat="1">
       <c r="A14" s="10">
-        <v>3002</v>
+        <v>1004</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="10">
         <v>30</v>
       </c>
       <c r="G14" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -2351,7 +2367,7 @@
         <v>600</v>
       </c>
       <c r="L14" s="10">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M14" s="10">
         <v>0</v>
@@ -2381,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W14" s="10">
         <v>1</v>
@@ -2392,37 +2408,37 @@
       <c r="Y14" s="10">
         <v>0</v>
       </c>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="AB14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="10" customFormat="1">
       <c r="A15" s="10">
-        <v>3003</v>
+        <v>2001</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="10">
         <v>30</v>
       </c>
       <c r="G15" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="10">
         <v>0</v>
@@ -2431,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="10">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="L15" s="10">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M15" s="10">
         <v>0</v>
@@ -2467,33 +2483,33 @@
         <v>106</v>
       </c>
       <c r="W15" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X15" s="10">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="Y15" s="10">
         <v>0</v>
       </c>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="AB15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="10" customFormat="1">
       <c r="A16" s="10">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>89</v>
@@ -2502,7 +2518,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="10">
         <v>3</v>
@@ -2514,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="10">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="L16" s="10">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M16" s="10">
         <v>0</v>
@@ -2547,37 +2563,36 @@
         <v>0</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W16" s="10">
         <v>1</v>
       </c>
       <c r="X16" s="10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y16" s="10">
-        <v>50</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
+      <c r="AC16" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="10" customFormat="1">
       <c r="A17" s="10">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>89</v>
@@ -2598,10 +2613,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="10">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="L17" s="10">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M17" s="10">
         <v>0</v>
@@ -2631,33 +2646,32 @@
         <v>0</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W17" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X17" s="10">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="Y17" s="10">
-        <v>30</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
+      <c r="AC17" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="AD17" s="9"/>
       <c r="AE17" s="9" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:31" s="10" customFormat="1">
       <c r="A18" s="10">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
@@ -2670,10 +2684,10 @@
         <v>30</v>
       </c>
       <c r="G18" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="10">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I18" s="10">
         <v>0</v>
@@ -2682,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="10">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L18" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M18" s="10">
         <v>0</v>
@@ -2721,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="X18" s="10">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="10">
         <v>50</v>
-      </c>
-      <c r="Y18" s="10">
-        <v>30</v>
       </c>
       <c r="Z18" s="10" t="s">
         <v>119</v>
@@ -2738,10 +2752,10 @@
     </row>
     <row r="19" spans="1:31" s="10" customFormat="1">
       <c r="A19" s="10">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
@@ -2757,7 +2771,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="10">
         <v>0</v>
@@ -2766,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="10">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L19" s="10">
         <v>50</v>
@@ -2799,16 +2813,16 @@
         <v>0</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="W19" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19" s="10">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="Y19" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Z19" s="10" t="s">
         <v>119</v>
@@ -2822,10 +2836,10 @@
     </row>
     <row r="20" spans="1:31" s="10" customFormat="1">
       <c r="A20" s="10">
-        <v>3011</v>
+        <v>3006</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
@@ -2838,10 +2852,10 @@
         <v>30</v>
       </c>
       <c r="G20" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I20" s="10">
         <v>0</v>
@@ -2850,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L20" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M20" s="10">
         <v>0</v>
@@ -2889,27 +2903,27 @@
         <v>1</v>
       </c>
       <c r="X20" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Y20" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:31" s="10" customFormat="1">
       <c r="A21" s="10">
-        <v>3012</v>
+        <v>3007</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
@@ -2925,7 +2939,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21" s="10">
         <v>0</v>
@@ -2934,10 +2948,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="10">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L21" s="10">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M21" s="10">
         <v>0</v>
@@ -2967,33 +2981,33 @@
         <v>0</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W21" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X21" s="10">
+        <v>120</v>
+      </c>
+      <c r="Y21" s="10">
         <v>50</v>
       </c>
-      <c r="Y21" s="10">
-        <v>30</v>
-      </c>
       <c r="Z21" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:31" s="10" customFormat="1">
       <c r="A22" s="10">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
@@ -3006,10 +3020,10 @@
         <v>30</v>
       </c>
       <c r="G22" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="10">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I22" s="10">
         <v>0</v>
@@ -3018,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="10">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L22" s="10">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M22" s="10">
         <v>0</v>
@@ -3057,10 +3071,10 @@
         <v>1</v>
       </c>
       <c r="X22" s="10">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="10">
         <v>50</v>
-      </c>
-      <c r="Y22" s="10">
-        <v>30</v>
       </c>
       <c r="Z22" s="10" t="s">
         <v>120</v>
@@ -3074,10 +3088,10 @@
     </row>
     <row r="23" spans="1:31" s="10" customFormat="1">
       <c r="A23" s="10">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
@@ -3093,7 +3107,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" s="10">
         <v>0</v>
@@ -3102,49 +3116,49 @@
         <v>0</v>
       </c>
       <c r="K23" s="10">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L23" s="10">
+        <v>35</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>0</v>
+      </c>
+      <c r="R23" s="10">
+        <v>0</v>
+      </c>
+      <c r="S23" s="10">
+        <v>0</v>
+      </c>
+      <c r="T23" s="10">
+        <v>0</v>
+      </c>
+      <c r="U23" s="10">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="W23" s="10">
+        <v>2</v>
+      </c>
+      <c r="X23" s="10">
         <v>50</v>
       </c>
-      <c r="M23" s="10">
-        <v>0</v>
-      </c>
-      <c r="N23" s="10">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>0</v>
-      </c>
-      <c r="R23" s="10">
-        <v>0</v>
-      </c>
-      <c r="S23" s="10">
-        <v>0</v>
-      </c>
-      <c r="T23" s="10">
-        <v>0</v>
-      </c>
-      <c r="U23" s="10">
-        <v>0</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="W23" s="10">
-        <v>1</v>
-      </c>
-      <c r="X23" s="10">
-        <v>120</v>
-      </c>
       <c r="Y23" s="10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Z23" s="10" t="s">
         <v>120</v>
@@ -3158,26 +3172,26 @@
     </row>
     <row r="24" spans="1:31" s="10" customFormat="1">
       <c r="A24" s="10">
-        <v>10001</v>
+        <v>3013</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F24" s="10">
         <v>30</v>
       </c>
       <c r="G24" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24" s="10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I24" s="10">
         <v>0</v>
@@ -3186,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="10">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L24" s="10">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="M24" s="10">
         <v>0</v>
@@ -3219,51 +3233,49 @@
         <v>0</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="W24" s="10">
         <v>1</v>
       </c>
       <c r="X24" s="10">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="Y24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="10" t="s">
-        <v>122</v>
+        <v>30</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
-      <c r="AD24" s="9" t="s">
-        <v>117</v>
-      </c>
+      <c r="AD24" s="9"/>
       <c r="AE24" s="9" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:31" s="10" customFormat="1">
       <c r="A25" s="10">
-        <v>20001</v>
+        <v>3014</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F25" s="10">
         <v>30</v>
       </c>
       <c r="G25" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I25" s="10">
         <v>0</v>
@@ -3272,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="K25" s="10">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L25" s="10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M25" s="10">
         <v>0</v>
@@ -3305,28 +3317,287 @@
         <v>0</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="W25" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X25" s="10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" s="10" customFormat="1">
+      <c r="A26" s="10">
+        <v>10001</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="10">
+        <v>30</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <v>3</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <v>300</v>
+      </c>
+      <c r="L26" s="10">
+        <v>200</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>0</v>
+      </c>
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
+        <v>0</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="W26" s="10">
+        <v>1</v>
+      </c>
+      <c r="X26" s="10">
+        <v>500</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE26" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" s="10" customFormat="1">
+      <c r="A27" s="10">
+        <v>20001</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="10">
+        <v>30</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>11</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <v>200</v>
+      </c>
+      <c r="L27" s="10">
+        <v>130</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>0</v>
+      </c>
+      <c r="R27" s="10">
+        <v>0</v>
+      </c>
+      <c r="S27" s="10">
+        <v>0</v>
+      </c>
+      <c r="T27" s="10">
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="W27" s="10">
+        <v>4</v>
+      </c>
+      <c r="X27" s="10">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="17.25" thickBot="1">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:31" s="10" customFormat="1">
+      <c r="A28" s="10">
+        <v>30001</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="10">
+        <v>30</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10">
+        <v>11</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0</v>
+      </c>
+      <c r="K28" s="10">
+        <v>300</v>
+      </c>
+      <c r="L28" s="10">
+        <v>200</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>0</v>
+      </c>
+      <c r="R28" s="10">
+        <v>0</v>
+      </c>
+      <c r="S28" s="10">
+        <v>0</v>
+      </c>
+      <c r="T28" s="10">
+        <v>0</v>
+      </c>
+      <c r="U28" s="10">
+        <v>0</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="W28" s="10">
+        <v>1</v>
+      </c>
+      <c r="X28" s="10">
+        <v>1000</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>30</v>
+      </c>
+      <c r="Z28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA28" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE28" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="17.25" thickBot="1">
+      <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
